--- a/pagamentos.xlsx
+++ b/pagamentos.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Pagamentos" state="visible" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Pagamentos"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Nome</t>
   </si>
@@ -43,16 +43,28 @@
     <t>Cargo</t>
   </si>
   <si>
-    <t>Nome do Cliente</t>
+    <t>Teste gratuito do método de mindset</t>
+  </si>
+  <si>
+    <t>Disponibilidade de horário para o teste</t>
+  </si>
+  <si>
+    <t>Indicação</t>
+  </si>
+  <si>
+    <t>Expectativas</t>
+  </si>
+  <si>
+    <t>teste vitor</t>
   </si>
   <si>
     <t>11999999999</t>
   </si>
   <si>
-    <t>cliente@email.com</t>
-  </si>
-  <si>
-    <t>12345678900</t>
+    <t>joao.silva@exemplo.com</t>
+  </si>
+  <si>
+    <t>12345678901</t>
   </si>
   <si>
     <t>Brasil</t>
@@ -61,26 +73,33 @@
     <t>São Paulo</t>
   </si>
   <si>
-    <t>https://linkedin.com/in/usuario</t>
-  </si>
-  <si>
-    <t>Nome da Empresa</t>
-  </si>
-  <si>
-    <t>Cargo do Cliente</t>
+    <t>https://linkedin.com/in/joao-silva</t>
+  </si>
+  <si>
+    <t>Empresa XYZ</t>
+  </si>
+  <si>
+    <t>Desenvolvedor</t>
+  </si>
+  <si>
+    <t>Amigo</t>
+  </si>
+  <si>
+    <t>Aprender mais sobre desenvolvimento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,20 +122,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -410,77 +432,103 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.005" customWidth="1"/>
-    <col min="2" max="2" width="15.005" customWidth="1"/>
-    <col min="3" max="3" width="25.005" customWidth="1"/>
-    <col min="4" max="4" width="14.005" customWidth="1"/>
-    <col min="5" max="6" width="15.005" customWidth="1"/>
-    <col min="7" max="7" width="30.005" customWidth="1"/>
-    <col min="8" max="9" width="20.005" customWidth="1"/>
+    <col min="1" max="1" style="2" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="2" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="2" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="2" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="2" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="2" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="2" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="2" width="30.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
